--- a/相关资源/数据/题目2拟合.xlsx
+++ b/相关资源/数据/题目2拟合.xlsx
@@ -26,13 +26,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,16 +48,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,6 +63,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -80,6 +71,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -87,16 +108,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,19 +140,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,24 +164,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,24 +178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,25 +194,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,97 +356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,82 +378,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,16 +401,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,17 +462,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,155 +485,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,36 +616,27 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,288 +961,288 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72321428571429" defaultRowHeight="12" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.017</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0.154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.02</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.018</v>
+      <c r="B3">
+        <v>0.181</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.025</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.085</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.087</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.296</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.119</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.299</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.171</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>0.334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.174</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>0.363</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>0.21</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>0.428</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.211</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>0.366</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.233</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>0.537</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.783</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>1.47</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.999</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>0.771</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1.11</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>0.531</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>1.29</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>0.87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1.32</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>1.15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>1.35</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>2.48</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>1.69</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>1.44</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>1.74</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>2.23</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>2.75</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>1.84</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>3.02</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>2.01</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>3.04</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>3.59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>3.34</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>2.83</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>4.09</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>3.58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>4.28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3.28</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>4.29</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>3.4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>4.58</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>2.96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>4.68</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>5.1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>4.83</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>4.66</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>5.3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>3.88</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>5.45</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>3.52</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>5.48</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>4.15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>5.53</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>6.94</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>5.96</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>2.4</v>
       </c>
     </row>
